--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd48-Cd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd48-Cd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -543,10 +540,10 @@
         <v>0.370073</v>
       </c>
       <c r="I2">
-        <v>0.0005450346192706311</v>
+        <v>0.0005394219724782368</v>
       </c>
       <c r="J2">
-        <v>0.0005450346192706311</v>
+        <v>0.0005394219724782368</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,101 +552,101 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7316486666666666</v>
+        <v>0.9383216666666666</v>
       </c>
       <c r="N2">
-        <v>2.194946</v>
+        <v>2.814965</v>
       </c>
       <c r="O2">
-        <v>0.6752690990488778</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.6752690990488778</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.09025447233977776</v>
+        <v>0.1157491713827778</v>
       </c>
       <c r="R2">
-        <v>0.8122902510579999</v>
+        <v>1.041742542445</v>
       </c>
       <c r="S2">
-        <v>0.0003680450363053272</v>
+        <v>0.0005394219724782368</v>
       </c>
       <c r="T2">
-        <v>0.0003680450363053272</v>
+        <v>0.0005394219724782368</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1233576666666667</v>
+        <v>133.150345</v>
       </c>
       <c r="H3">
-        <v>0.370073</v>
+        <v>399.451035</v>
       </c>
       <c r="I3">
-        <v>0.0005450346192706311</v>
+        <v>0.5822436795123481</v>
       </c>
       <c r="J3">
-        <v>0.0005450346192706311</v>
+        <v>0.5822436795123481</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3518433333333333</v>
+        <v>0.9383216666666666</v>
       </c>
       <c r="N3">
-        <v>1.05553</v>
+        <v>2.814965</v>
       </c>
       <c r="O3">
-        <v>0.3247309009511223</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.3247309009511223</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.04340257263222222</v>
+        <v>124.9378536376417</v>
       </c>
       <c r="R3">
-        <v>0.39062315369</v>
+        <v>1124.440682738775</v>
       </c>
       <c r="S3">
-        <v>0.0001769895829653039</v>
+        <v>0.5822436795123481</v>
       </c>
       <c r="T3">
-        <v>0.0001769895829653039</v>
+        <v>0.5822436795123481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>115.7298073333333</v>
+        <v>95.41121</v>
       </c>
       <c r="H4">
-        <v>347.189422</v>
+        <v>286.23363</v>
       </c>
       <c r="I4">
-        <v>0.5113322356252968</v>
+        <v>0.4172168985151736</v>
       </c>
       <c r="J4">
-        <v>0.5113322356252968</v>
+        <v>0.4172168985151736</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,338 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7316486666666666</v>
+        <v>0.9383216666666666</v>
       </c>
       <c r="N4">
-        <v>2.194946</v>
+        <v>2.814965</v>
       </c>
       <c r="O4">
-        <v>0.6752690990488778</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.6752690990488778</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>84.67355922902354</v>
+        <v>89.52640558588332</v>
       </c>
       <c r="R4">
-        <v>762.0620330612119</v>
+        <v>805.73765027295</v>
       </c>
       <c r="S4">
-        <v>0.3452868580653427</v>
+        <v>0.4172168985151736</v>
       </c>
       <c r="T4">
-        <v>0.3452868580653427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>115.7298073333333</v>
-      </c>
-      <c r="H5">
-        <v>347.189422</v>
-      </c>
-      <c r="I5">
-        <v>0.5113322356252968</v>
-      </c>
-      <c r="J5">
-        <v>0.5113322356252968</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.3518433333333333</v>
-      </c>
-      <c r="N5">
-        <v>1.05553</v>
-      </c>
-      <c r="O5">
-        <v>0.3247309009511223</v>
-      </c>
-      <c r="P5">
-        <v>0.3247309009511223</v>
-      </c>
-      <c r="Q5">
-        <v>40.71876117818444</v>
-      </c>
-      <c r="R5">
-        <v>366.46885060366</v>
-      </c>
-      <c r="S5">
-        <v>0.1660453775599542</v>
-      </c>
-      <c r="T5">
-        <v>0.1660453775599542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.223393</v>
-      </c>
-      <c r="H6">
-        <v>0.670179</v>
-      </c>
-      <c r="I6">
-        <v>0.0009870235226784236</v>
-      </c>
-      <c r="J6">
-        <v>0.0009870235226784236</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.7316486666666666</v>
-      </c>
-      <c r="N6">
-        <v>2.194946</v>
-      </c>
-      <c r="O6">
-        <v>0.6752690990488778</v>
-      </c>
-      <c r="P6">
-        <v>0.6752690990488778</v>
-      </c>
-      <c r="Q6">
-        <v>0.1634451905926666</v>
-      </c>
-      <c r="R6">
-        <v>1.471006715334</v>
-      </c>
-      <c r="S6">
-        <v>0.0006665064848991087</v>
-      </c>
-      <c r="T6">
-        <v>0.0006665064848991087</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.223393</v>
-      </c>
-      <c r="H7">
-        <v>0.670179</v>
-      </c>
-      <c r="I7">
-        <v>0.0009870235226784236</v>
-      </c>
-      <c r="J7">
-        <v>0.0009870235226784236</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.3518433333333333</v>
-      </c>
-      <c r="N7">
-        <v>1.05553</v>
-      </c>
-      <c r="O7">
-        <v>0.3247309009511223</v>
-      </c>
-      <c r="P7">
-        <v>0.3247309009511223</v>
-      </c>
-      <c r="Q7">
-        <v>0.07859933776333333</v>
-      </c>
-      <c r="R7">
-        <v>0.70739403987</v>
-      </c>
-      <c r="S7">
-        <v>0.000320517037779315</v>
-      </c>
-      <c r="T7">
-        <v>0.000320517037779315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>110.2534076666667</v>
-      </c>
-      <c r="H8">
-        <v>330.760223</v>
-      </c>
-      <c r="I8">
-        <v>0.4871357062327542</v>
-      </c>
-      <c r="J8">
-        <v>0.4871357062327542</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.7316486666666666</v>
-      </c>
-      <c r="N8">
-        <v>2.194946</v>
-      </c>
-      <c r="O8">
-        <v>0.6752690990488778</v>
-      </c>
-      <c r="P8">
-        <v>0.6752690990488778</v>
-      </c>
-      <c r="Q8">
-        <v>80.6667587147731</v>
-      </c>
-      <c r="R8">
-        <v>726.000828432958</v>
-      </c>
-      <c r="S8">
-        <v>0.3289476894623307</v>
-      </c>
-      <c r="T8">
-        <v>0.3289476894623307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>110.2534076666667</v>
-      </c>
-      <c r="H9">
-        <v>330.760223</v>
-      </c>
-      <c r="I9">
-        <v>0.4871357062327542</v>
-      </c>
-      <c r="J9">
-        <v>0.4871357062327542</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.3518433333333333</v>
-      </c>
-      <c r="N9">
-        <v>1.05553</v>
-      </c>
-      <c r="O9">
-        <v>0.3247309009511223</v>
-      </c>
-      <c r="P9">
-        <v>0.3247309009511223</v>
-      </c>
-      <c r="Q9">
-        <v>38.79192646479889</v>
-      </c>
-      <c r="R9">
-        <v>349.12733818319</v>
-      </c>
-      <c r="S9">
-        <v>0.1581880167704235</v>
-      </c>
-      <c r="T9">
-        <v>0.1581880167704235</v>
+        <v>0.4172168985151736</v>
       </c>
     </row>
   </sheetData>
